--- a/Progress&Estimations.xlsx
+++ b/Progress&Estimations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t xml:space="preserve">Sprint 1 - Initial Task Allocation</t>
   </si>
@@ -31,12 +31,12 @@
     <t xml:space="preserve">Friday</t>
   </si>
   <si>
+    <t xml:space="preserve">Ideal Task Progress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task Progress Daily Estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">Ideal Task Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shan</t>
   </si>
   <si>
@@ -103,10 +103,22 @@
     <t xml:space="preserve">Meeting Attendance</t>
   </si>
   <si>
+    <t xml:space="preserve">Mtg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtg2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtg3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abset</t>
   </si>
   <si>
     <t xml:space="preserve">Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent</t>
   </si>
 </sst>
 </file>
@@ -325,7 +337,7 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI58" activeCellId="0" sqref="AH58:AI62"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,6 +480,21 @@
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="N6" s="7"/>
       <c r="P6" s="0" t="s">
@@ -477,6 +504,12 @@
       <c r="AB6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="AD6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>80</v>
+      </c>
       <c r="AJ6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,6 +520,12 @@
         <v>2.5</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" s="6"/>
@@ -498,6 +537,12 @@
       <c r="AB7" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="AD7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>60</v>
+      </c>
       <c r="AJ7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,6 +553,12 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" s="6"/>
@@ -519,17 +570,32 @@
       <c r="AB8" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AD8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="L9" s="6"/>
       <c r="N9" s="7"/>
@@ -540,17 +606,32 @@
       <c r="AB9" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="AD9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="L10" s="6"/>
       <c r="N10" s="7"/>
@@ -564,30 +645,57 @@
       <c r="AB10" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="AD10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L11" s="6"/>
       <c r="N11" s="7"/>
       <c r="P11" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="X11" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z11" s="8"/>
       <c r="AB11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="AF11" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH11" s="9" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AI11" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,6 +773,15 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" s="0" t="s">
         <v>2</v>
       </c>
@@ -712,10 +829,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L25" s="6"/>
     </row>
@@ -724,10 +844,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -736,10 +859,13 @@
         <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L27" s="6"/>
     </row>
@@ -747,8 +873,14 @@
       <c r="A28" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="B28" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L28" s="6"/>
     </row>
@@ -756,14 +888,29 @@
       <c r="A29" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="E29" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="L30" s="6"/>
     </row>

--- a/Progress&Estimations.xlsx
+++ b/Progress&Estimations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t xml:space="preserve">Sprint 1 - Initial Task Allocation</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mtg3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mtg 4</t>
   </si>
   <si>
     <t xml:space="preserve">Abset</t>
@@ -336,8 +339,8 @@
   </sheetPr>
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG27" activeCellId="0" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,6 +498,12 @@
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="N6" s="7"/>
       <c r="P6" s="0" t="s">
@@ -510,6 +519,9 @@
       <c r="AE6" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="AF6" s="0" t="n">
+        <v>80</v>
+      </c>
       <c r="AJ6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,6 +539,9 @@
       </c>
       <c r="G7" s="0" t="n">
         <v>2.5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="L7" s="6"/>
       <c r="N7" s="7"/>
@@ -543,6 +558,9 @@
       <c r="AE7" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="AF7" s="0" t="n">
+        <v>80</v>
+      </c>
       <c r="AJ7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,6 +578,9 @@
       </c>
       <c r="G8" s="0" t="n">
         <v>2.5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="L8" s="6"/>
       <c r="N8" s="7"/>
@@ -576,6 +597,9 @@
       <c r="AE8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AF8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,6 +620,12 @@
       </c>
       <c r="F9" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L9" s="6"/>
       <c r="N9" s="7"/>
@@ -612,6 +642,9 @@
       <c r="AE9" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AF9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,6 +665,12 @@
       </c>
       <c r="F10" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L10" s="6"/>
       <c r="N10" s="7"/>
@@ -651,6 +690,9 @@
       <c r="AE10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AF10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,6 +713,12 @@
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="L11" s="6"/>
       <c r="N11" s="7"/>
@@ -693,7 +741,9 @@
       <c r="AE11" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" s="9"/>
+      <c r="AF11" s="9" t="n">
+        <v>0.2</v>
+      </c>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="8"/>
@@ -782,6 +832,9 @@
       <c r="G22" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="I22" s="0" t="s">
         <v>2</v>
       </c>
@@ -829,13 +882,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L25" s="6"/>
     </row>
@@ -844,13 +900,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -859,13 +918,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L27" s="6"/>
     </row>
@@ -874,13 +936,16 @@
         <v>14</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L28" s="6"/>
     </row>
@@ -889,13 +954,16 @@
         <v>17</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L29" s="6"/>
     </row>
@@ -904,13 +972,16 @@
         <v>21</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="L30" s="6"/>
     </row>

--- a/Progress&Estimations.xlsx
+++ b/Progress&Estimations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t xml:space="preserve">Sprint 1 - Initial Task Allocation</t>
   </si>
@@ -28,12 +28,30 @@
     <t xml:space="preserve">Hours Worked Per Day</t>
   </si>
   <si>
+    <t xml:space="preserve">s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal Task Progress</t>
+  </si>
+  <si>
     <t xml:space="preserve">Friday</t>
   </si>
   <si>
-    <t xml:space="preserve">Ideal Task Progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task Progress Daily Estimate</t>
   </si>
   <si>
@@ -47,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (Jun Sick)</t>
   </si>
   <si>
     <t xml:space="preserve">Task 2</t>
@@ -339,8 +360,8 @@
   </sheetPr>
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG27" activeCellId="0" sqref="AG27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +369,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="17" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.42"/>
@@ -364,22 +387,37 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="W3" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,7 +519,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.5</v>
@@ -507,11 +545,11 @@
       <c r="L6" s="6"/>
       <c r="N6" s="7"/>
       <c r="P6" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="8"/>
       <c r="AB6" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD6" s="0" t="n">
         <v>80</v>
@@ -526,7 +564,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2.5</v>
@@ -541,16 +585,25 @@
         <v>2.5</v>
       </c>
       <c r="H7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="L7" s="6"/>
       <c r="N7" s="7"/>
       <c r="P7" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Z7" s="8"/>
       <c r="AB7" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AD7" s="0" t="n">
         <v>40</v>
@@ -565,7 +618,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2.5</v>
@@ -580,16 +639,25 @@
         <v>2.5</v>
       </c>
       <c r="H8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="L8" s="6"/>
       <c r="N8" s="7"/>
       <c r="P8" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="8"/>
       <c r="AB8" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AD8" s="0" t="n">
         <v>0</v>
@@ -604,7 +672,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -630,11 +698,11 @@
       <c r="L9" s="6"/>
       <c r="N9" s="7"/>
       <c r="P9" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Z9" s="8"/>
       <c r="AB9" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AD9" s="0" t="n">
         <v>0</v>
@@ -649,7 +717,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -675,14 +743,14 @@
       <c r="L10" s="6"/>
       <c r="N10" s="7"/>
       <c r="P10" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Z10" s="8"/>
       <c r="AB10" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AD10" s="0" t="n">
         <v>0</v>
@@ -697,7 +765,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -723,7 +791,7 @@
       <c r="L11" s="6"/>
       <c r="N11" s="7"/>
       <c r="P11" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>75</v>
@@ -733,7 +801,7 @@
       </c>
       <c r="Z11" s="8"/>
       <c r="AB11" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AD11" s="0" t="n">
         <v>10</v>
@@ -749,38 +817,41 @@
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="N12" s="7"/>
       <c r="P12" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Z12" s="8"/>
       <c r="AB12" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,22 +892,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,109 +950,109 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L30" s="6"/>
     </row>

--- a/Progress&Estimations.xlsx
+++ b/Progress&Estimations.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t xml:space="preserve">Sprint 1 - Initial Task Allocation</t>
   </si>
@@ -143,6 +144,42 @@
   </si>
   <si>
     <t xml:space="preserve">Absent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2 - Initial Task Allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Sprint Planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint2 Planning Mtg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present </t>
   </si>
 </sst>
 </file>
@@ -240,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -278,6 +315,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,8 +401,8 @@
   </sheetPr>
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,4 +1127,498 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AN37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="21" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="8.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="R3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <v>43192</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>43193</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>43194</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>43195</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>43196</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43197</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>43198</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>43199</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>43200</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>43201</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>43202</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>43203</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>43204</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>43205</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>43206</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="4"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="5"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="AD5" s="8"/>
+      <c r="AN5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="R6" s="7"/>
+      <c r="AD6" s="8"/>
+      <c r="AN6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="R7" s="7"/>
+      <c r="AD7" s="8"/>
+      <c r="AN7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="R8" s="7"/>
+      <c r="AD8" s="8"/>
+      <c r="AN8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="AD9" s="8"/>
+      <c r="AN9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="R10" s="7"/>
+      <c r="AD10" s="8"/>
+      <c r="AN10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="R11" s="7"/>
+      <c r="AD11" s="8"/>
+      <c r="AJ11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P12" s="8"/>
+      <c r="R12" s="7"/>
+      <c r="AD12" s="8"/>
+      <c r="AN12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="8"/>
+      <c r="R13" s="7"/>
+      <c r="AD13" s="8"/>
+      <c r="AN13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="8"/>
+      <c r="R14" s="7"/>
+      <c r="AD14" s="8"/>
+      <c r="AN14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="8"/>
+      <c r="R15" s="7"/>
+      <c r="AD15" s="8"/>
+      <c r="AN15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="8"/>
+      <c r="R16" s="7"/>
+      <c r="AD16" s="8"/>
+      <c r="AN16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="AD17" s="8"/>
+      <c r="AN17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="8"/>
+      <c r="R18" s="7"/>
+      <c r="AD18" s="8"/>
+      <c r="AN18" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="n">
+        <v>43193</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="n">
+        <v>43194</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>43195</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>43196</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>43197</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>43198</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>43199</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>43200</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>43201</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>43202</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>43203</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>43204</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>43205</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>43206</v>
+      </c>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P37" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Progress&Estimations.xlsx
+++ b/Progress&Estimations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t xml:space="preserve">Sprint 1 - Initial Task Allocation</t>
   </si>
@@ -1136,16 +1136,16 @@
   </sheetPr>
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="11" style="0" width="8.53"/>
@@ -1328,6 +1328,12 @@
       <c r="G7" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="R7" s="7"/>
       <c r="AD7" s="8"/>
@@ -1355,6 +1361,9 @@
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="R8" s="7"/>
       <c r="AD8" s="8"/>
@@ -1370,6 +1379,9 @@
       <c r="G9" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="R9" s="7"/>
       <c r="AD9" s="8"/>
@@ -1388,6 +1400,9 @@
       <c r="G10" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="R10" s="7"/>
       <c r="AD10" s="8"/>
@@ -1396,6 +1411,9 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="P11" s="6"/>
       <c r="R11" s="7"/>
@@ -1514,6 +1532,9 @@
       <c r="H25" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="I25" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="P25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,6 +1550,9 @@
       <c r="H26" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="I26" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="P26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,6 +1568,9 @@
       <c r="H27" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="I27" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="P27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,6 +1586,9 @@
       <c r="H28" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="I28" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="P28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,6 +1604,9 @@
       <c r="H29" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="I29" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="P29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,6 +1620,9 @@
         <v>52</v>
       </c>
       <c r="H30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>52</v>
       </c>
       <c r="P30" s="6"/>
